--- a/medicine/Enfance/Jacqueline_Wilson/Jacqueline_Wilson.xlsx
+++ b/medicine/Enfance/Jacqueline_Wilson/Jacqueline_Wilson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacqueline Maddie Wilson, née Aitken le 17 décembre 1945 à Bath, en Angleterre, est une auteure de littérature d'enfance et de jeunesse anglaise. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À 9 ans, elle écrit son premier livre de 22 pages intitulé Meet the Maggots qui parle d'une famille de sept enfants. Elle étudie d'abord le secrétariat puis se lance dans le journalisme et dans l'édition. À 19 ans, elle épousa William Millar Wilson. Deux ans plus tard, elle eut une fille nommée Emma. À 24 ans, elle écrit ses premiers romans à destination des préadolescents. Tous ses livres sont illustrés par Nick Sharatt. Elle a remporté de nombreux prix, dont le Children's Book Award en 2000 et  2003 ainsi que le prix Tam-Tam pour Lulu Bouche-cousue. Elle vit aujourd'hui près de Londres.
 En 2008, elle a été élevée au rang de Dame de l'Empire britannique.
@@ -543,7 +557,9 @@
           <t>Style d'écriture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle aborde dans ses romans de nombreux sujets réputés difficiles pour la jeunesse, tels que les sans domicile fixe, le divorce (Reviens, papa !), les mauvais traitements, l'amour impossible (Un cœur brisé) les femmes battues (Lola Rose), les mises sous tutelle (Poisson d'avril), la maladie mentale (Maman, ma sœur et moi), ou l'homosexualité (Kiss).
 Son style d'écriture emploie la narration à la première personne.
@@ -575,7 +591,9 @@
           <t>Vente de livres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacqueline Wilson a vendu plus de 25 millions d'exemplaires de ses livres uniquement dans le Royaume-Uni.
 </t>
@@ -606,7 +624,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs de ses livres ont été adaptés en films pour la télévision anglaise, dont Poisson d'avril (Dustbin Baby) en 2008 avec Dakota Blue Richards dans le rôle-titre.
 </t>
@@ -637,7 +657,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les Vacances du chiot garou, (The Werepuppy on Holiday , 1994), Castor Poche, 1997.
 La Double Vie de Charlotte (The Lottie Project, 1997), Gallimard, Folio junior, 1998.
